--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3279.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3279.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mushfiqur Rahim</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -491,7 +556,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>06/08/2006</t>
@@ -499,7 +563,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,7 +603,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/12/2006</t>
@@ -547,7 +610,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2567</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -599,7 +662,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2568</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -639,7 +702,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>15/12/2006</t>
@@ -647,7 +709,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2571</t>
+          <t>2571</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -699,7 +761,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2573</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -751,7 +813,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2612</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -803,7 +865,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2618</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,7 +917,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2623</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -907,7 +969,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2625</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -947,7 +1009,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>25/02/2007</t>
@@ -955,7 +1016,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2635</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -995,7 +1056,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/02/2007</t>
@@ -1003,7 +1063,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2637</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1055,7 +1115,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2645</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1107,7 +1167,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2653</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1147,7 +1207,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>25/03/2007</t>
@@ -1155,7 +1214,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2661</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1207,7 +1266,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2666</t>
+          <t>2666</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1259,7 +1318,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2668</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1311,7 +1370,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2671</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1363,7 +1422,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2675</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1415,7 +1474,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2679</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1467,7 +1526,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1519,7 +1578,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2689</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1571,7 +1630,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2690</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1623,7 +1682,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2716</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1675,7 +1734,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2717</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1727,7 +1786,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2718</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1779,7 +1838,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2770</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1831,7 +1890,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2771</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1883,7 +1942,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2772</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1935,7 +1994,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2816</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1987,7 +2046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2818</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2039,7 +2098,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2823</t>
+          <t>2823</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2091,7 +2150,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2827</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2143,7 +2202,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2833</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2195,7 +2254,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2838</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2247,7 +2306,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2845</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2299,7 +2358,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2351,7 +2410,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2403,7 +2462,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2882</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2455,7 +2514,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2892</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2507,7 +2566,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2893</t>
+          <t>2893</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2559,7 +2618,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2912</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2611,7 +2670,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2663,7 +2722,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2916</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2715,7 +2774,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2767,7 +2826,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2819,7 +2878,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2871,7 +2930,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2923,7 +2982,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2975,7 +3034,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3015,7 +3074,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -3023,7 +3081,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2994</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3075,7 +3133,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2995</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3127,7 +3185,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2996</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3179,7 +3237,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2997</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3231,7 +3289,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2998</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3283,7 +3341,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3323,7 +3381,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>29/10/2009</t>
@@ -3331,7 +3388,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3043</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3383,7 +3440,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3044</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3435,7 +3492,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3487,7 +3544,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3049</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3539,7 +3596,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3591,7 +3648,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3643,7 +3700,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3695,7 +3752,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3747,7 +3804,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3799,7 +3856,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3851,7 +3908,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3903,7 +3960,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3955,7 +4012,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4007,7 +4064,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4059,7 +4116,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4111,7 +4168,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3125</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4163,7 +4220,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3128</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4215,7 +4272,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4267,7 +4324,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4319,7 +4376,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4371,7 +4428,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3160</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4423,7 +4480,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4463,7 +4520,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>11/10/2010</t>
@@ -4471,7 +4527,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4523,7 +4579,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4575,7 +4631,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4627,7 +4683,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3205</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4679,7 +4735,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3207</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4731,7 +4787,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3209</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4783,7 +4839,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3213</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4835,7 +4891,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4887,7 +4943,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4939,7 +4995,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4991,7 +5047,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5043,7 +5099,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3266</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5095,7 +5151,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5147,7 +5203,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3284</t>
+          <t>3284</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5199,7 +5255,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5251,7 +5307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3286</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5303,7 +5359,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5355,7 +5411,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5407,7 +5463,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5459,7 +5515,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5511,7 +5567,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5563,7 +5619,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5615,7 +5671,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5667,7 +5723,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5719,7 +5775,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5771,7 +5827,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5823,7 +5879,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5875,7 +5931,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5927,7 +5983,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5979,7 +6035,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6031,7 +6087,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6083,7 +6139,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6135,7 +6191,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6187,7 +6243,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6239,7 +6295,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6291,7 +6347,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6343,7 +6399,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6383,7 +6439,6 @@
           <t>115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -6391,7 +6446,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6443,7 +6498,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6495,7 +6550,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6547,7 +6602,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3495</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6599,7 +6654,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3496</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6651,7 +6706,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6703,7 +6758,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6755,7 +6810,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6807,7 +6862,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6859,7 +6914,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6911,7 +6966,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6963,7 +7018,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7015,7 +7070,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7067,7 +7122,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7119,7 +7174,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7171,7 +7226,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7223,7 +7278,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7263,7 +7318,6 @@
           <t>132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -7271,7 +7325,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7323,7 +7377,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7375,7 +7429,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7427,7 +7481,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7479,7 +7533,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7531,7 +7585,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7583,7 +7637,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7635,7 +7689,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7687,7 +7741,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3708</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7739,7 +7793,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7791,7 +7845,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7843,7 +7897,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7895,7 +7949,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7947,7 +8001,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7999,7 +8053,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8051,7 +8105,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8103,7 +8157,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8155,7 +8209,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8207,7 +8261,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8259,7 +8313,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8311,7 +8365,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8363,7 +8417,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8403,7 +8457,6 @@
           <t>154</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -8411,7 +8464,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8451,7 +8504,6 @@
           <t>155</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -8459,7 +8511,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8511,7 +8563,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8563,7 +8615,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3856</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8615,7 +8667,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8667,7 +8719,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8719,7 +8771,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8771,7 +8823,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8823,7 +8875,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8875,7 +8927,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8927,7 +8979,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8979,7 +9031,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9031,7 +9083,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9071,7 +9123,6 @@
           <t>167</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -9079,7 +9130,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9131,7 +9182,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9183,7 +9234,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9235,7 +9286,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9287,7 +9338,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9339,7 +9390,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9391,7 +9442,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9443,7 +9494,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9495,7 +9546,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9547,7 +9598,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9599,7 +9650,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9651,7 +9702,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9703,7 +9754,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9755,7 +9806,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9807,7 +9858,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9859,7 +9910,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9911,7 +9962,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9963,7 +10014,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10015,7 +10066,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10067,7 +10118,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10119,7 +10170,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10171,7 +10222,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10223,7 +10274,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10275,7 +10326,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10327,7 +10378,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10379,7 +10430,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10431,7 +10482,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10483,7 +10534,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10535,7 +10586,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4218</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10587,7 +10638,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10639,7 +10690,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10691,7 +10742,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10743,7 +10794,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10795,7 +10846,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10847,7 +10898,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10899,7 +10950,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10951,7 +11002,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11003,7 +11054,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11055,7 +11106,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11107,7 +11158,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11159,7 +11210,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11211,7 +11262,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11263,7 +11314,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11315,7 +11366,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11367,7 +11418,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11419,7 +11470,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11471,7 +11522,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11523,7 +11574,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11575,7 +11626,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11627,7 +11678,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11679,7 +11730,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11731,7 +11782,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11783,7 +11834,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11835,7 +11886,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11887,7 +11938,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11939,7 +11990,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -11991,7 +12042,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12043,7 +12094,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12095,7 +12146,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12147,7 +12198,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12199,7 +12250,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12251,7 +12302,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12303,7 +12354,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12355,7 +12406,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12407,7 +12458,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12459,7 +12510,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12499,7 +12550,6 @@
           <t>233</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -12507,7 +12557,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12559,7 +12609,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12611,7 +12661,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4627</t>
+          <t>4627</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12663,7 +12713,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4628</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12715,7 +12765,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12767,7 +12817,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -12819,7 +12869,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -12871,7 +12921,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12923,7 +12973,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -12975,7 +13025,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -13027,7 +13077,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -13079,7 +13129,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -13119,7 +13169,6 @@
           <t>245</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -13127,7 +13176,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -13158,6 +13207,559 @@
       <c r="J246" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14.81%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.87%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.67%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17.16%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.62%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.63%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.43%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.66%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.46%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3279.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3279.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,6 +555,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>06/08/2006</t>
@@ -603,6 +603,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/12/2006</t>
@@ -702,6 +703,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>15/12/2006</t>
@@ -1009,6 +1011,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>25/02/2007</t>
@@ -1056,6 +1059,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/02/2007</t>
@@ -1207,6 +1211,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>25/03/2007</t>
@@ -3074,6 +3079,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -3381,6 +3387,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>29/10/2009</t>
@@ -4520,6 +4527,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>11/10/2010</t>
@@ -6439,6 +6447,7 @@
           <t>115</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -6451,7 +6460,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7318,6 +7327,7 @@
           <t>132</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -7330,7 +7340,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -8457,6 +8467,7 @@
           <t>154</t>
         </is>
       </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -8504,6 +8515,7 @@
           <t>155</t>
         </is>
       </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -9123,6 +9135,7 @@
           <t>167</t>
         </is>
       </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -9135,7 +9148,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -12550,6 +12563,7 @@
           <t>233</t>
         </is>
       </c>
+      <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -13169,6 +13183,7 @@
           <t>245</t>
         </is>
       </c>
+      <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -13207,559 +13222,6 @@
       <c r="J246" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>14.81%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.37%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.65%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.87%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.67%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>17.16%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4627</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.62%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4628</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.63%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.43%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.66%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.06%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.46%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
